--- a/data/trans_bre/P54_A_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>12,08%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,91</t>
+          <t>-3,15; 5,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 13,0</t>
+          <t>0,68; 11,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,09</t>
+          <t>4,53; 13,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 47,92</t>
+          <t>-18,02; 47,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 19,83</t>
+          <t>1,04; 18,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 18,72</t>
+          <t>6,01; 19,06</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,67%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,99</t>
+          <t>1,99; 12,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 16,25</t>
+          <t>5,76; 16,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 11,01</t>
+          <t>1,18; 10,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 94,33</t>
+          <t>10,27; 96,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 23,6</t>
+          <t>7,9; 24,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 14,19</t>
+          <t>1,39; 13,22</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,2%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 10,21</t>
+          <t>-12,62; 9,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 19,27</t>
+          <t>-3,47; 18,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 16,88</t>
+          <t>1,35; 16,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 86,62</t>
+          <t>-52,22; 77,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 29,2</t>
+          <t>-4,28; 28,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 22,23</t>
+          <t>1,59; 21,97</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,22</t>
+          <t>0,57; 6,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,74</t>
+          <t>4,38; 11,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,53</t>
+          <t>4,67; 10,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 52,86</t>
+          <t>3,58; 51,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 17,09</t>
+          <t>6,08; 17,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,02</t>
+          <t>5,88; 14,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,46%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,15%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.690948855121288</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.088397428201453</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.668363564621441</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1146122100674106</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1032432948903475</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1182314304580199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 5,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 11,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,53; 13,27</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,02; 47,21</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 18,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 19,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.150007844873434</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.391797428113426</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.44676591872393</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1802012139322624</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.01941137250045098</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.05937364203505711</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.874109869055003</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.02816007528721</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.23899392257865</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4720646384787397</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.204330885435347</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1915889089574573</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,22</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>48,13%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>15,07%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 12,19</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 16,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 10,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>10,27; 96,68</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>7,9; 24,32</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 13,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.052550451636885</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.64200721038804</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.150773543207344</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4813389053607442</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1608901940554076</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.07577322829113158</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,39%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.985456760374046</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>6.24553670517408</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.25908630503064</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.1026723860331184</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.08166999202523337</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.01466591538263211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,62; 9,67</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 18,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 16,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-52,22; 77,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 28,25</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 21,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.18535045768317</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.61530717062222</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.58802905700218</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.9667737115096233</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2592984870495462</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1353768009336503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>24,05%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11,51%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,89%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.7930308771922384</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.565475980236734</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>10.20609633462064</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.04394905969621834</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.07261033204735805</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1251015608832279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 6,84</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 11,91</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 10,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 51,86</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6,08; 17,59</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 14,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.62391850832643</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.148506654203605</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.679293287326519</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.5222157134894885</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.07362862465520544</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.01998005555215794</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.666131828845707</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.31142266580447</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.92781059865791</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.7746159454846626</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2344451190061082</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.237064756428603</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.634360047232726</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.559010078053998</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.670997291538484</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2404723721472929</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.120343135139371</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.09903522541772136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.5686124593169942</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.822623667782788</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.454127558640958</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.03577215815523004</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.06561282097436973</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.05658462330055076</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.840208206742941</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.79258683402869</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.58046264294838</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5186217025439904</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1879346774639852</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1408707042535295</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +938,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
